--- a/mic_positions/data/side_postions_measured.xlsx
+++ b/mic_positions/data/side_postions_measured.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4015F-6B0A-4C4F-9E8C-B55E41F4F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1C2EE-17CA-4F60-8565-FF2443D37D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0.64900000000000002</v>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0.89200000000000002</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0.252</v>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1.3120000000000001</v>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0.56100000000000005</v>
@@ -856,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0.90400000000000003</v>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0.126</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1.2310000000000001</v>
@@ -949,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0.54</v>
@@ -980,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0.28899999999999998</v>
@@ -1011,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>1.0740000000000001</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>0.71499999999999997</v>
@@ -1073,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0.08</v>
@@ -1104,7 +1104,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0.442</v>
@@ -1135,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0.96299999999999997</v>
@@ -1166,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1.302</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>0.58899999999999997</v>
@@ -1755,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>0.64900000000000002</v>
@@ -1786,7 +1786,7 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>0.89200000000000002</v>
@@ -1817,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>0.252</v>
@@ -1848,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>1.3120000000000001</v>
@@ -1879,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>0.56100000000000005</v>
@@ -1910,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>0.90400000000000003</v>
@@ -1941,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0.126</v>
@@ -1972,7 +1972,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>1.2310000000000001</v>
@@ -2003,7 +2003,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>0.54</v>
@@ -2034,7 +2034,7 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>0.28899999999999998</v>
@@ -2065,7 +2065,7 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <v>1.0740000000000001</v>
@@ -2096,7 +2096,7 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D47">
         <v>0.71499999999999997</v>
@@ -2127,7 +2127,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>0.08</v>
@@ -2158,7 +2158,7 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>0.442</v>
@@ -2189,7 +2189,7 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D50">
         <v>0.96299999999999997</v>
@@ -2220,7 +2220,7 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <v>1.302</v>
@@ -2251,7 +2251,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>0.58899999999999997</v>

--- a/mic_positions/data/side_postions_measured.xlsx
+++ b/mic_positions/data/side_postions_measured.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1C2EE-17CA-4F60-8565-FF2443D37D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFE434-810F-4A0C-9A03-BC053710F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>0.64900000000000002</v>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>0.89200000000000002</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0.252</v>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1.3120000000000001</v>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>0.56100000000000005</v>
@@ -856,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0.90400000000000003</v>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>0.126</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1.2310000000000001</v>
@@ -949,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0.54</v>
@@ -980,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>0.28899999999999998</v>
@@ -1011,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>1.0740000000000001</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>0.71499999999999997</v>
@@ -1073,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>0.08</v>
@@ -1104,7 +1104,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>0.442</v>
@@ -1135,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0.96299999999999997</v>
@@ -1166,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>1.302</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>0.58899999999999997</v>
@@ -1755,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>0.64900000000000002</v>
@@ -1786,7 +1786,7 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0.89200000000000002</v>
@@ -1817,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>0.252</v>
@@ -1848,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>1.3120000000000001</v>
@@ -1879,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>0.56100000000000005</v>
@@ -1910,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>0.90400000000000003</v>
@@ -1941,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>0.126</v>
@@ -1972,7 +1972,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>1.2310000000000001</v>
@@ -2003,7 +2003,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>0.54</v>
@@ -2034,7 +2034,7 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>0.28899999999999998</v>
@@ -2065,7 +2065,7 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>1.0740000000000001</v>
@@ -2096,7 +2096,7 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>0.71499999999999997</v>
@@ -2127,7 +2127,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>0.08</v>
@@ -2158,7 +2158,7 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>0.442</v>
@@ -2189,7 +2189,7 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>0.96299999999999997</v>
@@ -2220,7 +2220,7 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>1.302</v>
@@ -2251,7 +2251,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>0.58899999999999997</v>

--- a/mic_positions/data/side_postions_measured.xlsx
+++ b/mic_positions/data/side_postions_measured.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFE434-810F-4A0C-9A03-BC053710F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F17055E-012F-432B-9D16-B74AD3BF40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,6 +289,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -661,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2472,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="F64">
-        <v>1.1379999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="G64">
         <v>1.17</v>
